--- a/data/meta_data/plate5_setup.xlsx
+++ b/data/meta_data/plate5_setup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Dropbox/GLNE_07_Preservation/data/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Documents/Preservation_Bias/data/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8B34F08C-3FB4-D241-8C5D-71E26464A15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B64E0A80-8F47-874C-AFAD-D85120DDA847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1980" windowWidth="36160" windowHeight="22320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13060" yWindow="460" windowWidth="36160" windowHeight="22320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate5_setup" sheetId="1" r:id="rId1"/>
